--- a/submit/Verilator中Warning无法清理说明.xlsx
+++ b/submit/Verilator中Warning无法清理说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\一生一芯\ysyxSoC\ysyx\lint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39966914-07FC-4CB2-B5B8-F513D6FAEF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70F06E3-82D3-4BF5-B149-FB34F9384E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10812" yWindow="1056" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,101 +63,100 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ysyx_210760.v:4416:17: Signal is not used: 'io_interrupt'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4431:17: Signal is not used: 'io_master_bresp'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4432:17: Signal is not used: 'io_master_bid'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ysyx_210760.v:4442:17: Signal is not used: 'io_master_rresp'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4445:17: Signal is not used: 'io_master_rid'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4447:17: Signal is not used: 'io_slave_awvalid'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4448:17: Signal is not used: 'io_slave_awaddr'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ysyx_210760.v:4449:17: Signal is not used: 'io_slave_awid'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4450:17: Signal is not used: 'io_slave_awlen'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4451:17: Signal is not used: 'io_slave_awsize'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4452:17: Signal is not used: 'io_slave_awburst'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4454:17: Signal is not used: 'io_slave_wvalid'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4455:17: Signal is not used: 'io_slave_wdata'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4456:17: Signal is not used: 'io_slave_wstrb'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4457:17: Signal is not used: 'io_slave_wlast'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4458:17: Signal is not used: 'io_slave_bready'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4463:17: Signal is not used: 'io_slave_arvalid'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4464:17: Signal is not used: 'io_slave_araddr'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4465:17: Signal is not used: 'io_slave_arid'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ysyx_210760.v:4466:17: Signal is not used: 'io_slave_arlen'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4467:17: Signal is not used: 'io_slave_arsize'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4468:17: Signal is not used: 'io_slave_arburst'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4469:17: Signal is not used: 'io_slave_rready'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4540:9: Signal is not used: 's_a_brid_io_dram_addr_ok'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4320:15: Bits of signal are not used: '_GEN_92'[63:32]</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4046:17: Bits of signal are not used: 'io_rw_addr_i'[63:32]</t>
-  </si>
-  <si>
     <t>这是由64位数据截断到32位数据的中转信号，因此不使用该信号的高32位</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ysyx_210760.v:1739:15: Bits of signal are not used: '_addr_real_T_2'[63:32]</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:789:15: Bits of signal are not used: 'ctr_signals_8'[8:0]</t>
-  </si>
-  <si>
     <t>译码阶段译出的12位控制信号，访存阶段只用到该信号的高3位</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4422:17: Signal is not used: 'io_interrupt'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4437:17: Signal is not used: 'io_master_bresp'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4438:17: Signal is not used: 'io_master_bid'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4448:17: Signal is not used: 'io_master_rresp'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4451:17: Signal is not used: 'io_master_rid'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4453:17: Signal is not used: 'io_slave_awvalid'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4454:17: Signal is not used: 'io_slave_awaddr'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4455:17: Signal is not used: 'io_slave_awid'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4456:17: Signal is not used: 'io_slave_awlen'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4457:17: Signal is not used: 'io_slave_awsize'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4458:17: Signal is not used: 'io_slave_awburst'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4460:17: Signal is not used: 'io_slave_wvalid'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4461:17: Signal is not used: 'io_slave_wdata'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4462:17: Signal is not used: 'io_slave_wstrb'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4463:17: Signal is not used: 'io_slave_wlast'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4464:17: Signal is not used: 'io_slave_bready'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ysyx_210760.v:4469:17: Signal is not used: 'io_slave_arvalid'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4470:17: Signal is not used: 'io_slave_araddr'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4471:17: Signal is not used: 'io_slave_arid'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4472:17: Signal is not used: 'io_slave_arlen'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4473:17: Signal is not used: 'io_slave_arsize'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4474:17: Signal is not used: 'io_slave_arburst'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4475:17: Signal is not used: 'io_slave_rready'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4546:9: Signal is not used: 's_a_brid_io_dram_addr_ok'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4052:17: Bits of signal are not used: 'io_rw_addr_i'[63:32]</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4326:15: Bits of signal are not used: '_GEN_92'[63:32]</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:796:15: Bits of signal are not used: 'ctr_signals_8'[8:0]</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:1746:15: Bits of signal are not used: '_addr_real_T_2'[63:32]</t>
   </si>
 </sst>
 </file>
@@ -620,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -661,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>6</v>
@@ -673,7 +672,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>7</v>
@@ -685,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>7</v>
@@ -697,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>7</v>
@@ -709,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>7</v>
@@ -721,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>8</v>
@@ -733,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>8</v>
@@ -745,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>8</v>
@@ -757,7 +756,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>8</v>
@@ -769,7 +768,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>8</v>
@@ -781,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>8</v>
@@ -793,7 +792,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>8</v>
@@ -805,7 +804,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>8</v>
@@ -817,7 +816,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>8</v>
@@ -829,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>8</v>
@@ -841,7 +840,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>8</v>
@@ -853,7 +852,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>8</v>
@@ -865,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>8</v>
@@ -877,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>8</v>
@@ -889,7 +888,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>8</v>
@@ -901,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>8</v>
@@ -913,7 +912,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>8</v>
@@ -925,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>8</v>
@@ -937,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>9</v>
@@ -949,10 +948,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D27" s="9"/>
     </row>
@@ -961,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>10</v>
@@ -976,7 +975,7 @@
         <v>39</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D29" s="9"/>
     </row>
@@ -985,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>10</v>

--- a/submit/Verilator中Warning无法清理说明.xlsx
+++ b/submit/Verilator中Warning无法清理说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\一生一芯\ysyxSoC\ysyx\lint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70F06E3-82D3-4BF5-B149-FB34F9384E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ADEC53-0BAA-4C87-A150-6D05699AE3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10812" yWindow="1056" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
   <si>
     <t>Warning说明</t>
   </si>
@@ -71,92 +71,105 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ysyx_210760.v:4422:17: Signal is not used: 'io_interrupt'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4437:17: Signal is not used: 'io_master_bresp'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4438:17: Signal is not used: 'io_master_bid'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4448:17: Signal is not used: 'io_master_rresp'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4451:17: Signal is not used: 'io_master_rid'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4453:17: Signal is not used: 'io_slave_awvalid'</t>
+    <t>ysyx_210760.v:796:15: Bits of signal are not used: 'ctr_signals_8'[8:0]</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4427:17: Signal is not used: 'io_interrupt'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4442:17: Signal is not used: 'io_master_bresp'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4443:17: Signal is not used: 'io_master_bid'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4453:17: Signal is not used: 'io_master_rresp'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ysyx_210760.v:4456:17: Signal is not used: 'io_master_rid'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4458:17: Signal is not used: 'io_slave_awvalid'</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ysyx_210760.v:4454:17: Signal is not used: 'io_slave_awaddr'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4455:17: Signal is not used: 'io_slave_awid'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4456:17: Signal is not used: 'io_slave_awlen'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4457:17: Signal is not used: 'io_slave_awsize'</t>
+    <t>ysyx_210760.v:4459:17: Signal is not used: 'io_slave_awaddr'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4460:17: Signal is not used: 'io_slave_awid'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4461:17: Signal is not used: 'io_slave_awlen'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4462:17: Signal is not used: 'io_slave_awsize'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4463:17: Signal is not used: 'io_slave_awburst'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4465:17: Signal is not used: 'io_slave_wvalid'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4466:17: Signal is not used: 'io_slave_wdata'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4467:17: Signal is not used: 'io_slave_wstrb'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4468:17: Signal is not used: 'io_slave_wlast'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4469:17: Signal is not used: 'io_slave_bready'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4474:17: Signal is not used: 'io_slave_arvalid'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4475:17: Signal is not used: 'io_slave_araddr'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4476:17: Signal is not used: 'io_slave_arid'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4477:17: Signal is not used: 'io_slave_arlen'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4478:17: Signal is not used: 'io_slave_arsize'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4479:17: Signal is not used: 'io_slave_arburst'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4480:17: Signal is not used: 'io_slave_rready'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4551:9: Signal is not used: 's_a_brid_io_dram_addr_ok'</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4057:17: Bits of signal are not used: 'io_rw_addr_i'[63:32]</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:4331:15: Bits of signal are not used: '_GEN_92'[63:32]</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:1750:15: Bits of signal are not used: '_addr_real_T_2'[63:32]</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:1314:16: Bits of signal are not used: '_sll_res_64_T_1'[126:64]</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:1317:15: Bits of signal are not used: '_sll_res_32_T_1'[62:32]</t>
+  </si>
+  <si>
+    <t>ysyx_210760.v:2924:15: Bits of signal are not used: '_csr_target_T_2'[65:64]</t>
+  </si>
+  <si>
+    <t>chisel左移指令自动生成的高位</t>
+  </si>
+  <si>
+    <t>chisel左移指令自动生成的高位</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4458:17: Signal is not used: 'io_slave_awburst'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4460:17: Signal is not used: 'io_slave_wvalid'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4461:17: Signal is not used: 'io_slave_wdata'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4462:17: Signal is not used: 'io_slave_wstrb'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4463:17: Signal is not used: 'io_slave_wlast'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4464:17: Signal is not used: 'io_slave_bready'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ysyx_210760.v:4469:17: Signal is not used: 'io_slave_arvalid'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4470:17: Signal is not used: 'io_slave_araddr'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4471:17: Signal is not used: 'io_slave_arid'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4472:17: Signal is not used: 'io_slave_arlen'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4473:17: Signal is not used: 'io_slave_arsize'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4474:17: Signal is not used: 'io_slave_arburst'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4475:17: Signal is not used: 'io_slave_rready'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4546:9: Signal is not used: 's_a_brid_io_dram_addr_ok'</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4052:17: Bits of signal are not used: 'io_rw_addr_i'[63:32]</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:4326:15: Bits of signal are not used: '_GEN_92'[63:32]</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:796:15: Bits of signal are not used: 'ctr_signals_8'[8:0]</t>
-  </si>
-  <si>
-    <t>ysyx_210760.v:1746:15: Bits of signal are not used: '_addr_real_T_2'[63:32]</t>
   </si>
 </sst>
 </file>
@@ -617,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -660,7 +673,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>6</v>
@@ -672,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>7</v>
@@ -684,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>7</v>
@@ -696,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>7</v>
@@ -708,7 +721,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>7</v>
@@ -720,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>8</v>
@@ -732,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>8</v>
@@ -744,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>8</v>
@@ -756,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>8</v>
@@ -768,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>8</v>
@@ -780,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>8</v>
@@ -792,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>8</v>
@@ -804,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>8</v>
@@ -816,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>8</v>
@@ -828,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>8</v>
@@ -840,7 +853,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>8</v>
@@ -852,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>8</v>
@@ -864,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>8</v>
@@ -876,7 +889,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>8</v>
@@ -888,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>8</v>
@@ -900,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>8</v>
@@ -912,7 +925,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>8</v>
@@ -924,7 +937,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>8</v>
@@ -936,7 +949,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>9</v>
@@ -948,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>11</v>
@@ -960,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>10</v>
@@ -972,7 +985,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>12</v>
@@ -990,6 +1003,42 @@
         <v>10</v>
       </c>
       <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
